--- a/SP_Sklad/TempLate/SettingMaterialPrices.xlsx
+++ b/SP_Sklad/TempLate/SettingMaterialPrices.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WinVSProjects\SP-Sklad\SP_Sklad\TempLate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4003BFC-C94C-4FFC-B51B-81AAA36E9204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="4125" windowWidth="14175" windowHeight="7260"/>
+    <workbookView xWindow="3255" yWindow="780" windowWidth="21600" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,18 @@
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$6:$7</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -42,11 +59,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -368,12 +385,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -382,40 +398,41 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="12" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -448,7 +465,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -527,6 +543,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -574,7 +593,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -606,9 +625,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -640,6 +677,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -815,13 +870,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
   <dimension ref="B1:F12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
@@ -832,7 +889,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="27" customHeight="1">
+    <row r="1" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="25" t="s">
         <v>4</v>
       </c>
@@ -841,7 +898,7 @@
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
     </row>
-    <row r="2" spans="2:6" ht="16.5" customHeight="1">
+    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="34" t="e">
         <f>"на категрію:  "&amp;PriceList_PriceTypesName</f>
         <v>#NAME?</v>
@@ -851,23 +908,23 @@
       <c r="E2" s="34"/>
       <c r="F2" s="34"/>
     </row>
-    <row r="3" spans="2:6" s="10" customFormat="1" ht="9.75" customHeight="1">
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
+    <row r="3" spans="2:6" s="9" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="2:6" s="10" customFormat="1" ht="18" customHeight="1">
-      <c r="B4" s="35" t="s">
+    <row r="4" spans="2:6" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="19" t="e">
+      <c r="C4" s="18" t="e">
         <f>PriceList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="2:6" ht="7.5" customHeight="1"/>
-    <row r="6" spans="2:6" ht="17.25" customHeight="1">
+    <row r="5" spans="2:6" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="28" t="s">
         <v>2</v>
       </c>
@@ -880,21 +937,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15" customHeight="1">
+    <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="31"/>
       <c r="C7" s="32"/>
       <c r="D7" s="33"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
     </row>
-    <row r="8" spans="2:6" ht="9" customHeight="1">
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+    <row r="8" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
     </row>
-    <row r="9" spans="2:6" ht="12.75" customHeight="1">
+    <row r="9" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="e">
         <f>MatGroup_GrpName</f>
         <v>#NAME?</v>
@@ -904,35 +961,34 @@
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
     </row>
-    <row r="10" spans="2:6" ht="12.75" customHeight="1">
+    <row r="10" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="e">
-        <f>PriceListDet_Name</f>
+        <f>PriceListDet_MatName</f>
         <v>#NAME?</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="22"/>
-      <c r="E10" s="9" t="e">
+      <c r="E10" s="8" t="e">
         <f>PriceListDet_MsrName</f>
         <v>#NAME?</v>
       </c>
-      <c r="F10" s="8" t="e">
+      <c r="F10" s="7" t="e">
         <f>PriceListDet_Price</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="12.75" customHeight="1">
-      <c r="B11" s="15"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
+    <row r="11" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="14"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="2:6" ht="12.75" customHeight="1">
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="16"/>
+    <row r="12" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/SP_Sklad/TempLate/SettingMaterialPrices.xlsx
+++ b/SP_Sklad/TempLate/SettingMaterialPrices.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WinVSProjects\SP-Sklad\SP_Sklad\TempLate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4003BFC-C94C-4FFC-B51B-81AAA36E9204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C8600B-3504-400C-BF09-B15A488AE35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="780" windowWidth="21600" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4620" yWindow="1905" windowWidth="21600" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MatGroup">Лист1!$A$8:$F$12</definedName>
+    <definedName name="MatGroup">Лист1!$A$8:$K$12</definedName>
     <definedName name="MatInDet">Лист1!#REF!</definedName>
-    <definedName name="PriceListDet">Лист1!$A$10:$F$11</definedName>
+    <definedName name="PriceListDet">Лист1!$A$10:$K$11</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$6:$7</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Од. виміру</t>
   </si>
@@ -54,6 +54,21 @@
   </si>
   <si>
     <t>Документ на встановлення цін</t>
+  </si>
+  <si>
+    <t>Артикул</t>
+  </si>
+  <si>
+    <t>Попередня ціна</t>
+  </si>
+  <si>
+    <t>Закупівельна, грн</t>
+  </si>
+  <si>
+    <t>Націнка, %</t>
+  </si>
+  <si>
+    <t>Роздрібна ціна</t>
   </si>
 </sst>
 </file>
@@ -224,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -381,11 +396,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -420,6 +472,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -464,6 +519,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -872,47 +936,59 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:F12"/>
+  <dimension ref="B1:K12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
-    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="e">
+    <row r="2" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="35" t="e">
         <f>"на категрію:  "&amp;PriceList_PriceTypesName</f>
         <v>#NAME?</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="2:6" s="9" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" s="9" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="2:6" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>3</v>
       </c>
@@ -922,83 +998,154 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="2:6" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="28" t="s">
+    <row r="5" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="26" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="37"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="38"/>
+    </row>
+    <row r="7" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="20" t="s">
         <v>1</v>
       </c>
+      <c r="I7" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-    </row>
-    <row r="8" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
-    <row r="9" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="e">
+    <row r="9" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="24" t="e">
         <f>MatGroup_GrpName</f>
         <v>#NAME?</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
     </row>
-    <row r="10" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="20" t="e">
+    <row r="10" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="21" t="e">
         <f>PriceListDet_MatName</f>
         <v>#NAME?</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="8" t="e">
         <f>PriceListDet_MsrName</f>
         <v>#NAME?</v>
       </c>
-      <c r="F10" s="7" t="e">
+      <c r="F10" s="8" t="e">
+        <f>PriceListDet_Artikul</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G10" s="7" t="e">
+        <f>PriceListDet_LastProcurementPrice</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H10" s="7" t="e">
+        <f>PriceListDet_ProcurementPrice</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I10" s="7" t="e">
+        <f>PriceListDet_Markup</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J10" s="7" t="e">
+        <f>PriceListDet_LastPrice</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K10" s="7" t="e">
         <f>PriceListDet_Price</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="14"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="15"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="B1:K1"/>
     <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="B2:K2"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
